--- a/pickle/rolling_corr_excel_target_index_S&P500_simulation_term_type_2_window_size_33.xlsx
+++ b/pickle/rolling_corr_excel_target_index_S&P500_simulation_term_type_2_window_size_33.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>S&amp;P500_BBA-10Y Spread</t>
   </si>
@@ -35,24 +35,6 @@
     <t>S&amp;P500_CNY/USD</t>
   </si>
   <si>
-    <t>S&amp;P500_CPB 선진국 산업생산</t>
-  </si>
-  <si>
-    <t>S&amp;P500_CPB 선진국 수출</t>
-  </si>
-  <si>
-    <t>S&amp;P500_CPB 세계교역</t>
-  </si>
-  <si>
-    <t>S&amp;P500_CPB 세계생산</t>
-  </si>
-  <si>
-    <t>S&amp;P500_CPB 이머징 산업생산</t>
-  </si>
-  <si>
-    <t>S&amp;P500_CPB 이머징 수출</t>
-  </si>
-  <si>
     <t>S&amp;P500_CPI 주거비</t>
   </si>
   <si>
@@ -203,18 +185,9 @@
     <t>S&amp;P500_Nikkei225 P/E</t>
   </si>
   <si>
-    <t>S&amp;P500_OECD ASIA 5 경기선행지수</t>
-  </si>
-  <si>
-    <t>S&amp;P500_OECD G7 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_OECD 소비자물가</t>
   </si>
   <si>
-    <t>S&amp;P500_OECD+6NME 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_OITP 인덱스</t>
   </si>
   <si>
@@ -374,12 +347,6 @@
     <t>S&amp;P500_두바이유가</t>
   </si>
   <si>
-    <t>S&amp;P500_러시아 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>S&amp;P500_러시아 수출 YoY</t>
-  </si>
-  <si>
     <t>S&amp;P500_미국 10년 투기적포지션</t>
   </si>
   <si>
@@ -401,18 +368,12 @@
     <t>S&amp;P500_미국 NAHB 주택시장지수</t>
   </si>
   <si>
-    <t>S&amp;P500_미국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_미국 PD 일평균 국채거래량</t>
   </si>
   <si>
     <t>S&amp;P500_미국 REER</t>
   </si>
   <si>
-    <t>S&amp;P500_미국 S&amp;P 케이스쉴러 주택가격</t>
-  </si>
-  <si>
     <t>S&amp;P500_미국 개인근로소득 YoY</t>
   </si>
   <si>
@@ -515,9 +476,6 @@
     <t>S&amp;P500_발틱 해운임지수</t>
   </si>
   <si>
-    <t>S&amp;P500_브라질 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_브라질 REER</t>
   </si>
   <si>
@@ -557,12 +515,6 @@
     <t>S&amp;P500_유럽 M3 YoY</t>
   </si>
   <si>
-    <t>S&amp;P500_유럽 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>S&amp;P500_유럽 산업생산(건설 제외) YoY</t>
-  </si>
-  <si>
     <t>S&amp;P500_유럽 소매판매 YoY</t>
   </si>
   <si>
@@ -584,9 +536,6 @@
     <t>S&amp;P500_유로존 Core CPI</t>
   </si>
   <si>
-    <t>S&amp;P500_유로존 Credit Impulse</t>
-  </si>
-  <si>
     <t>S&amp;P500_유로존 ESI</t>
   </si>
   <si>
@@ -596,9 +545,6 @@
     <t>S&amp;P500_유로존 소비자신뢰지수</t>
   </si>
   <si>
-    <t>S&amp;P500_인도 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_인도 REER</t>
   </si>
   <si>
@@ -614,15 +560,9 @@
     <t>S&amp;P500_일본 ESI</t>
   </si>
   <si>
-    <t>S&amp;P500_일본 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_일본 REER</t>
   </si>
   <si>
-    <t>S&amp;P500_일본 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_일본 산업생산 YoY</t>
   </si>
   <si>
@@ -659,9 +599,6 @@
     <t>S&amp;P500_중국 M1 YoY</t>
   </si>
   <si>
-    <t>S&amp;P500_중국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_중국 PPI</t>
   </si>
   <si>
@@ -699,18 +636,6 @@
   </si>
   <si>
     <t>S&amp;P500_한국 Core CPI</t>
-  </si>
-  <si>
-    <t>S&amp;P500_한국 M1 YoY</t>
-  </si>
-  <si>
-    <t>S&amp;P500_한국 M2 YoY</t>
-  </si>
-  <si>
-    <t>S&amp;P500_한국 M3 YoY</t>
-  </si>
-  <si>
-    <t>S&amp;P500_한국 OECD 경기선행지수</t>
   </si>
   <si>
     <t>S&amp;P500_한국 PPI</t>
@@ -1212,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO4"/>
+  <dimension ref="A1:IP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,7 +1145,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:275">
+    <row r="1" spans="1:250">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,913 +1893,763 @@
       <c r="IP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:250">
+      <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:250">
+      <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:275">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="II2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:275">
-      <c r="A3" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
@@ -2882,127 +2657,127 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>2</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="AK3" t="n">
         <v>2</v>
       </c>
-      <c r="R3" t="n">
-        <v>3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>3</v>
-      </c>
-      <c r="X3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
@@ -3011,13 +2786,13 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
         <v>0</v>
@@ -3041,13 +2816,13 @@
         <v>0</v>
       </c>
       <c r="BE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH3" t="n">
         <v>0</v>
@@ -3056,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK3" t="n">
         <v>0</v>
@@ -3065,31 +2840,31 @@
         <v>3</v>
       </c>
       <c r="BM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR3" t="n">
         <v>0</v>
       </c>
       <c r="BS3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BU3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BV3" t="n">
         <v>0</v>
@@ -3104,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CA3" t="n">
         <v>0</v>
@@ -3116,67 +2891,67 @@
         <v>0</v>
       </c>
       <c r="CD3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CH3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CJ3" t="n">
         <v>0</v>
       </c>
       <c r="CK3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CL3" t="n">
         <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CN3" t="n">
         <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CP3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR3" t="n">
         <v>0</v>
       </c>
       <c r="CS3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CT3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CU3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CW3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CX3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CY3" t="n">
         <v>0</v>
@@ -3188,61 +2963,61 @@
         <v>0</v>
       </c>
       <c r="DB3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DC3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DD3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DE3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DK3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DL3" t="n">
         <v>3</v>
       </c>
       <c r="DM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO3" t="n">
         <v>2</v>
       </c>
-      <c r="DN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO3" t="n">
-        <v>1</v>
-      </c>
       <c r="DP3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DQ3" t="n">
         <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DU3" t="n">
         <v>0</v>
@@ -3251,58 +3026,58 @@
         <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY3" t="n">
         <v>0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EA3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="ED3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EG3" t="n">
         <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EI3" t="n">
         <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EK3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EM3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EN3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EO3" t="n">
         <v>0</v>
@@ -3311,10 +3086,10 @@
         <v>1</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="ER3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
         <v>3</v>
@@ -3323,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="EU3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EV3" t="n">
         <v>3</v>
@@ -3332,1197 +3107,1047 @@
         <v>3</v>
       </c>
       <c r="EX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD3" t="n">
         <v>2</v>
       </c>
-      <c r="EY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FA3" t="n">
+      <c r="FE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH3" t="n">
         <v>2</v>
       </c>
-      <c r="FB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>0</v>
-      </c>
       <c r="FI3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FK3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FL3" t="n">
         <v>2</v>
       </c>
       <c r="FM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
         <v>0</v>
       </c>
       <c r="FO3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
         <v>3</v>
       </c>
       <c r="FQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ3" t="n">
         <v>2</v>
       </c>
-      <c r="FR3" t="n">
+      <c r="HA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HL3" t="n">
         <v>2</v>
       </c>
-      <c r="FS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GJ3" t="n">
+      <c r="HM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IF3" t="n">
         <v>2</v>
       </c>
-      <c r="GK3" t="n">
+      <c r="IG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="II3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN3" t="n">
         <v>2</v>
       </c>
-      <c r="GL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="II3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>0</v>
-      </c>
       <c r="IO3" t="n">
         <v>0</v>
       </c>
       <c r="IP3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO3" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:275">
+    <row r="4" spans="1:250">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9568414203474948</v>
+        <v>-0.9419853139040155</v>
       </c>
       <c r="C4" t="n">
-        <v>0.921822523656995</v>
+        <v>0.9513744367488598</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9090374673357129</v>
+        <v>0.7690067026911321</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8629284881667152</v>
+        <v>0.9167669620565351</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6891822167901666</v>
+        <v>0.5930413485754035</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6032157005464138</v>
+        <v>-0.2028474135758321</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9471970262407512</v>
+        <v>0.9739137980283943</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9570385578725733</v>
+        <v>0.9500282916145392</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9610146620241378</v>
+        <v>0.6984923199556612</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9743367801576951</v>
+        <v>0.3741452053466124</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9575644652305075</v>
+        <v>-0.5074425167383111</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9067028904304026</v>
+        <v>0.9684331016862652</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9517631790331847</v>
+        <v>-0.8135984391274029</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9290191139859419</v>
+        <v>0.8877109030692455</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2794585473613976</v>
+        <v>0.8204020803846354</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6117553552560469</v>
+        <v>0.8924346583403524</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.8297574418577488</v>
+        <v>0.6640713365045952</v>
       </c>
       <c r="S4" t="n">
-        <v>0.954341498681104</v>
+        <v>0.7611928017069981</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.8705977484650839</v>
+        <v>-0.7274112689487845</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8507971525527104</v>
+        <v>0.9078098934767134</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7479162557896365</v>
+        <v>0.4846096343877043</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8453562985785897</v>
+        <v>0.9339141342667594</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6907944372028108</v>
+        <v>0.902247650073404</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.6049432729653064</v>
+        <v>-0.157943606320368</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.7596508492610863</v>
+        <v>0.8790296377403284</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.9014482755356181</v>
+        <v>0.6865293264962053</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.4312894366463462</v>
+        <v>0.9186436582055364</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.9479895221332221</v>
+        <v>0.6828520212096545</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.8901235153962062</v>
+        <v>0.9486547302695164</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1174293224638588</v>
+        <v>0.7538058514764912</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.8547386986815366</v>
+        <v>0.6827266768097</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.5258913237846179</v>
+        <v>0.575149599567618</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.9325013540216422</v>
+        <v>-0.3237352972449069</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.6221076736878779</v>
+        <v>0.9281563675542625</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.9390374984317627</v>
+        <v>0.09380678448075315</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.6422460751873942</v>
+        <v>0.8544873859331664</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.3929645833690772</v>
+        <v>0.08315080932703522</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.6167964840207717</v>
+        <v>-0.5336989108112924</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.3894483214504345</v>
+        <v>-0.768851432923866</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.9533253328820821</v>
+        <v>0.9701895682545935</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.3328021121679964</v>
+        <v>0.2282057208713258</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.8786176594385151</v>
+        <v>-0.7758357338543526</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.2967496824277362</v>
+        <v>-0.6344924244418637</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.2631775461577489</v>
+        <v>0.9728533642771949</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.7899551133366582</v>
+        <v>0.9933954642975171</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.955069667435452</v>
+        <v>0.9950233806817802</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.09839788088611996</v>
+        <v>0.9620106630102803</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.8122817840353779</v>
+        <v>0.9615046144285905</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.7867203062195938</v>
+        <v>0.9746074644556401</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.9774709306273988</v>
+        <v>0.9953962580726463</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.9902723793761041</v>
+        <v>0.9945024878502832</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.9909869022021818</v>
+        <v>0.955462149780347</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.951861653842229</v>
+        <v>0.9175204084484566</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.9782159757937412</v>
+        <v>0.9004721078550812</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.9817502467659995</v>
+        <v>0.7895348941664587</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.9904881170145446</v>
+        <v>0.08243348311090182</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.9893158527249863</v>
+        <v>0.8950175207099917</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.9166995324373142</v>
+        <v>0.1225613298699541</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.8275040933982051</v>
+        <v>0.8753871751238227</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.8567695475686971</v>
+        <v>0.1029528145158898</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.6924310212010913</v>
+        <v>0.9082308409416718</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.2015403428845622</v>
+        <v>0.9019925413829925</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.1838295667333489</v>
+        <v>0.5536456050209366</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.8805220420756666</v>
+        <v>-0.5390191565255362</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.9013477717532883</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.9639215906803702</v>
+        <v>0.8929726381270348</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.4570236022107165</v>
+        <v>0.9906043862003594</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.8984718063900267</v>
+        <v>0.5100792443495318</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.1985582651890984</v>
+        <v>0.9766545713055215</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.8846610666656211</v>
+        <v>0.8929176903472895</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.8504453767581917</v>
+        <v>0.3364898539091148</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.5967425534082627</v>
+        <v>0.7997849545100407</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.3288383190074993</v>
+        <v>0.779459459398879</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.7901017616438861</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.8885726407889329</v>
+        <v>-0.7334480997922052</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.9912225433567192</v>
+        <v>-0.1751367942140888</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.7922607949109132</v>
+        <v>0.646577702758963</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.963712921489738</v>
+        <v>0.9013913613904115</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.852541065805105</v>
+        <v>0.871298509360274</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.4443436578041728</v>
+        <v>0.7489324852954262</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.839371055536549</v>
+        <v>0.3144648256911717</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.6888443041290448</v>
+        <v>0.7045539236432549</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.761553288829926</v>
+        <v>0.755358026346487</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.8568243351769574</v>
+        <v>-0.4559673588532293</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.2303797441376682</v>
+        <v>0.8886660876082692</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.3324020475019794</v>
+        <v>0.2545164937265208</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.8065334341225017</v>
+        <v>-0.1939002151658235</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.7580022983494042</v>
+        <v>0.1231735962996764</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.6178042317448009</v>
+        <v>-0.2296731989532926</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.3938380485499506</v>
+        <v>0.3932911351355071</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.775996152785313</v>
+        <v>0.9779921511020064</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.7210188223195629</v>
+        <v>-0.6026262761390012</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.6467206200722896</v>
+        <v>0.9141385200680119</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.8271214087815705</v>
+        <v>0.9757129130066702</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.3253385317137126</v>
+        <v>-0.6901898325067949</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0.223512196958966</v>
+        <v>0.9527202285407765</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.1867591832373273</v>
+        <v>0.607495372589551</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.2615714808528412</v>
+        <v>0.9258978039343542</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.4366862193974602</v>
+        <v>0.9224516707653077</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.9638498606135125</v>
+        <v>0.8975908184315302</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.4859497054368317</v>
+        <v>0.9245616729666319</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.5489404707165522</v>
+        <v>-0.6281609305966641</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.9698005433193446</v>
+        <v>0.8488356652061567</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.4999574235710373</v>
+        <v>0.565106982597516</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.9244279621483732</v>
+        <v>0.9144382529341826</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.6228800700525937</v>
+        <v>-0.5724024537071392</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.9221912688620705</v>
+        <v>0.6255222196139144</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.9168276005593824</v>
+        <v>0.7823442622635324</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.871785506691815</v>
+        <v>0.2341550833341593</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.9490475633590617</v>
+        <v>0.9237973759927764</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.5867942341810565</v>
+        <v>-0.4102138004637013</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.809200793337452</v>
+        <v>0.8337805302458037</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.2770179837282667</v>
+        <v>-0.5198471351283126</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.8940409111351401</v>
+        <v>0.5386249112876428</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.7452790296249177</v>
+        <v>0.2361607485086478</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.688788125944347</v>
+        <v>-0.8355655013184127</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.7154120626878895</v>
+        <v>0.8281911525609001</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.08660502544450205</v>
+        <v>0.450783328133043</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.8517492489002189</v>
+        <v>-0.3423598882913093</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.8877549925339272</v>
+        <v>0.9779921511020064</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.8652496881492731</v>
+        <v>0.9657975261748298</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.2131587557116319</v>
+        <v>0.9181807797362775</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.8234762363230766</v>
+        <v>0.8122195380929335</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.5586662477471389</v>
+        <v>0.9256324323111512</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.5513319445467365</v>
+        <v>0.511905310708989</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.367550297626114</v>
+        <v>0.7783054048896758</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.6573512054418043</v>
+        <v>-0.9151154603462065</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.8292313625855646</v>
+        <v>0.9919244319331489</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.6833756913262102</v>
+        <v>0.7670654531465813</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.2906683206878848</v>
+        <v>0.9608481438836474</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.3998886320163951</v>
+        <v>0.9738426487518619</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.9160514889541835</v>
+        <v>0.748752234677612</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.9638498606135125</v>
+        <v>-0.7316008437094916</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.9682509805568519</v>
+        <v>0.4685630202484125</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.78313543159633</v>
+        <v>-0.1201600542593724</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.6869042133686197</v>
+        <v>0.8731344002117858</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.9333323087456981</v>
+        <v>0.9666455234952783</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.3127760425864185</v>
+        <v>0.3803673327533928</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.8628521814157469</v>
+        <v>0.9015440577619414</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.9047805960836698</v>
+        <v>0.9466390239086815</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.992272930742607</v>
+        <v>0.9019214007000176</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.7059098056461443</v>
+        <v>0.87073258927398</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.9577526944710297</v>
+        <v>0.9343417508615384</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.9599885132674074</v>
+        <v>-0.9770425833062001</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.6344155591887619</v>
+        <v>0.9431638554088605</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.7734991649681793</v>
+        <v>0.2399450543002938</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.1208270683020373</v>
+        <v>0.8075823228187176</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.2540112737911089</v>
+        <v>-0.8876945657828206</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.7091629583049565</v>
+        <v>-0.9319025798436001</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.9257968941568665</v>
+        <v>-0.9352759453480183</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0.4361922177003223</v>
+        <v>0.7969901417238077</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.8852781287560487</v>
+        <v>0.822443640944484</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.9356993756347887</v>
+        <v>0.867188101271678</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.894137561517553</v>
+        <v>0.7030949272626389</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.8783474831045159</v>
+        <v>0.3729685728220992</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.914382287132546</v>
+        <v>0.1097074313799151</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.9730576374007494</v>
+        <v>-0.3021514625130038</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.9446377496208266</v>
+        <v>0.3741452053466124</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.2736404460987426</v>
+        <v>0.8642678743168701</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.4265992832186601</v>
+        <v>0.3011647654167335</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.8933898425496826</v>
+        <v>0.4493350401776087</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.9411649186669113</v>
+        <v>-0.3383515459381971</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.9482702393751259</v>
+        <v>0.8264863830805343</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.7487135535717244</v>
+        <v>-0.5906483170180288</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.8215611916737332</v>
+        <v>-0.3406771573983697</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.7840934636419848</v>
+        <v>-0.593113295404152</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.9671920610834831</v>
+        <v>0.09942364047348487</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.6829462594980075</v>
+        <v>0.9253107153477202</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.4511238148503436</v>
+        <v>0.6406434523378506</v>
       </c>
       <c r="FO4" t="n">
-        <v>-0.3038198017074245</v>
+        <v>-0.3297505607185319</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.338115158487315</v>
+        <v>-0.8105392269998418</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.6117553552560469</v>
+        <v>0.9129512375197684</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.8972768734555344</v>
+        <v>0.4169555637080298</v>
       </c>
       <c r="FS4" t="n">
-        <v>-0.3429540008111922</v>
+        <v>0.1561086905158371</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.5800160778657959</v>
+        <v>0.7800644679046639</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.2673766541449576</v>
+        <v>0.9253107153477202</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.8354293739591492</v>
+        <v>0.6860745193530853</v>
       </c>
       <c r="FW4" t="n">
-        <v>-0.5439434197859887</v>
+        <v>0.2669043546556619</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0.1616369313649164</v>
+        <v>0.7885865481940577</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0.4318200970199072</v>
+        <v>-0.7127709028647168</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.5611821345898872</v>
+        <v>-0.1595673822307907</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.3714518697302376</v>
+        <v>-0.405007778314621</v>
       </c>
       <c r="GB4" t="n">
-        <v>-0.0909347465825911</v>
+        <v>0.7343592529583125</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.9103604411869857</v>
+        <v>0.6694254841473943</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.4873950153137669</v>
+        <v>0.6656976712610045</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0.1444423677272448</v>
+        <v>0.8954887382817774</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0.818647216814356</v>
+        <v>0.9142363041069888</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.9013193867950758</v>
+        <v>0.2114438666849655</v>
       </c>
       <c r="GH4" t="n">
-        <v>0.3462188368560827</v>
+        <v>0.8505327834448687</v>
       </c>
       <c r="GI4" t="n">
-        <v>-0.8959238361654938</v>
+        <v>-0.8628157847127381</v>
       </c>
       <c r="GJ4" t="n">
-        <v>0.6392134927895866</v>
+        <v>-0.2911252940989409</v>
       </c>
       <c r="GK4" t="n">
-        <v>0.7039510118507989</v>
+        <v>-0.08964208374669579</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.9103604411869857</v>
+        <v>0.5236292924389856</v>
       </c>
       <c r="GM4" t="n">
-        <v>-0.3265116538456131</v>
+        <v>0.9470716032178792</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.8729531234673398</v>
+        <v>0.8890456153313041</v>
       </c>
       <c r="GO4" t="n">
-        <v>-0.3936266931377363</v>
+        <v>-0.5730100380397077</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.7610927695388572</v>
+        <v>-0.7667556816364709</v>
       </c>
       <c r="GQ4" t="n">
-        <v>-0.8030003452577269</v>
+        <v>-0.2911252940989409</v>
       </c>
       <c r="GR4" t="n">
-        <v>-0.09290641298705721</v>
+        <v>-0.2911252940989409</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.4870488262870534</v>
+        <v>0.8024253059466923</v>
       </c>
       <c r="GT4" t="n">
-        <v>0.2383742966980893</v>
+        <v>0.7205332566624953</v>
       </c>
       <c r="GU4" t="n">
-        <v>0.6821639841068144</v>
+        <v>-0.2911252940989409</v>
       </c>
       <c r="GV4" t="n">
-        <v>0.8132677720455248</v>
+        <v>0.2626006345294363</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.6080342677644603</v>
+        <v>0.2922383742983842</v>
       </c>
       <c r="GX4" t="n">
-        <v>0.5726011079471136</v>
+        <v>0.6222764010801123</v>
       </c>
       <c r="GY4" t="n">
-        <v>0.9038009285403341</v>
+        <v>0.6784357135702613</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.7795323664867538</v>
+        <v>-0.6798049840983936</v>
       </c>
       <c r="HA4" t="n">
-        <v>0.2163409651653282</v>
+        <v>0.8457806553247944</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.7860339137620845</v>
+        <v>0.7590303646232045</v>
       </c>
       <c r="HC4" t="n">
-        <v>-0.8511030192645425</v>
+        <v>-0.4974174588065886</v>
       </c>
       <c r="HD4" t="n">
-        <v>-0.4074382713629051</v>
+        <v>-0.6976242858917873</v>
       </c>
       <c r="HE4" t="n">
-        <v>-0.09334030180984607</v>
+        <v>0.1815684418602588</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.5439325641925512</v>
+        <v>-0.1951901608576427</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.9255656418589788</v>
+        <v>0.1743159809632706</v>
       </c>
       <c r="HH4" t="n">
-        <v>-0.7449346146892334</v>
+        <v>0.9765151117495212</v>
       </c>
       <c r="HI4" t="n">
-        <v>0.9364172961302289</v>
+        <v>-0.8230926986092439</v>
       </c>
       <c r="HJ4" t="n">
-        <v>-0.7982524382143767</v>
+        <v>0.2925635606320053</v>
       </c>
       <c r="HK4" t="n">
-        <v>-0.7517971798020984</v>
+        <v>-0.2144332355400541</v>
       </c>
       <c r="HL4" t="n">
-        <v>-0.4074382713629044</v>
+        <v>0.754283446163037</v>
       </c>
       <c r="HM4" t="n">
-        <v>-0.4074382713629044</v>
+        <v>0.8478186931589322</v>
       </c>
       <c r="HN4" t="n">
-        <v>0.8156982934886278</v>
+        <v>-0.2234739830154436</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.7321622423946004</v>
+        <v>-0.2079684324160612</v>
       </c>
       <c r="HP4" t="n">
-        <v>-0.4074382713629051</v>
+        <v>-0.274568992314197</v>
       </c>
       <c r="HQ4" t="n">
-        <v>0.1836525323257765</v>
+        <v>-0.1783662615765615</v>
       </c>
       <c r="HR4" t="n">
-        <v>0.4954812314775615</v>
+        <v>-0.7300970131608555</v>
       </c>
       <c r="HS4" t="n">
-        <v>0.4969071950037789</v>
+        <v>0.9663346992709779</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.809242673879279</v>
+        <v>-0.4010101864149082</v>
       </c>
       <c r="HU4" t="n">
-        <v>-0.6956051931792536</v>
+        <v>0.4964616412075667</v>
       </c>
       <c r="HV4" t="n">
-        <v>-0.9226115155306225</v>
+        <v>0.3757690977672444</v>
       </c>
       <c r="HW4" t="n">
-        <v>-0.9051768437056805</v>
+        <v>0.8236194236995104</v>
       </c>
       <c r="HX4" t="n">
-        <v>-0.9009024399147173</v>
+        <v>0.7311966357227918</v>
       </c>
       <c r="HY4" t="n">
-        <v>-0.1205991343968396</v>
+        <v>0.600887509665883</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.9087294944476887</v>
+        <v>-0.33766085613131</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.7402112030955768</v>
+        <v>-0.5053662525379099</v>
       </c>
       <c r="IB4" t="n">
-        <v>-0.5404946599209641</v>
+        <v>-0.3019702832358798</v>
       </c>
       <c r="IC4" t="n">
-        <v>-0.5586764085023415</v>
+        <v>-0.2704157723088089</v>
       </c>
       <c r="ID4" t="n">
-        <v>0.3861968770513133</v>
+        <v>-0.8227382742246928</v>
       </c>
       <c r="IE4" t="n">
-        <v>-0.06219651950298768</v>
+        <v>0.7122258667295075</v>
       </c>
       <c r="IF4" t="n">
-        <v>0.2780772130014426</v>
+        <v>0.1271791990737494</v>
       </c>
       <c r="IG4" t="n">
-        <v>0.9624075251205685</v>
+        <v>-0.7636043907911825</v>
       </c>
       <c r="IH4" t="n">
-        <v>-0.7561927384744286</v>
+        <v>-0.5522031439620295</v>
       </c>
       <c r="II4" t="n">
-        <v>0.3874105198403548</v>
+        <v>0.7122258667295075</v>
       </c>
       <c r="IJ4" t="n">
-        <v>-0.5749648538514268</v>
+        <v>0.7163454344027059</v>
       </c>
       <c r="IK4" t="n">
-        <v>0.3166077024987917</v>
+        <v>-0.4966540570356905</v>
       </c>
       <c r="IL4" t="n">
-        <v>0.6799106059275355</v>
+        <v>0.3676902469906885</v>
       </c>
       <c r="IM4" t="n">
-        <v>-0.1338747936984107</v>
+        <v>-0.1754335384467617</v>
       </c>
       <c r="IN4" t="n">
-        <v>-0.0282391002736984</v>
+        <v>-0.4069026457123729</v>
       </c>
       <c r="IO4" t="n">
-        <v>-0.2806188007633962</v>
+        <v>0.9304868554376879</v>
       </c>
       <c r="IP4" t="n">
-        <v>-0.2235555380786554</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>-0.8255772918403745</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>0.9374563033266395</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>-0.4334837044440091</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>0.5493863796941894</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>0.4513576373673159</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>0.8563225630678653</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>0.8137460338305027</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>0.7736273857823284</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>-0.3721517709798762</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>-0.5417689428555009</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>-0.08601752076049432</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>0.2869579069882907</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>-0.7614011392502037</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>0.7581579891732747</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>0.2227480331628246</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>-0.844657339263707</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>-0.5070077568387154</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>0.7581579891732747</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>0.838773785749738</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>-0.5882648942489105</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>0.3071874291822992</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>0.3857912682910944</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>-0.3154452638149271</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>0.8814259048914028</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>0.7747458313681338</v>
+        <v>0.8027257102784403</v>
       </c>
     </row>
   </sheetData>
